--- a/webapp/static/spreadsheets/attendance_template.xlsx
+++ b/webapp/static/spreadsheets/attendance_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17130" windowHeight="6360"/>
+    <workbookView windowWidth="22920" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -93,6 +93,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,8 +115,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,123 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,24 +555,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +573,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,207 +655,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,15 +821,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,17 +851,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1191,7 +1200,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.3" defaultRowHeight="15.75" outlineLevelRow="7"/>
@@ -1230,12 +1239,12 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:34">
       <c r="A2" s="3" t="s">
@@ -1268,51 +1277,51 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" ht="6" customHeight="1" spans="1:34">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
@@ -1333,30 +1342,30 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1373,46 +1382,46 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
     </row>
     <row r="6" customFormat="1" spans="1:34">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1422,94 +1431,94 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="9" customHeight="1" spans="1:34">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="10" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="10" t="s">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
       <c r="AI8" s="1"/>
     </row>
   </sheetData>
